--- a/static/etfs/vix_weekly.xlsx
+++ b/static/etfs/vix_weekly.xlsx
@@ -24226,10 +24226,10 @@
         <v>20.64999961853027</v>
       </c>
       <c r="E1034" t="n">
-        <v>21.42000007629395</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="F1034" t="n">
-        <v>21.42000007629395</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="G1034" t="n">
         <v>0</v>
@@ -24237,22 +24237,22 @@
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B1035" t="n">
-        <v>22.92000007629395</v>
+        <v>21.97999954223633</v>
       </c>
       <c r="C1035" t="n">
-        <v>23.13999938964844</v>
+        <v>22.01000022888184</v>
       </c>
       <c r="D1035" t="n">
-        <v>21.13999938964844</v>
+        <v>20.70999908447266</v>
       </c>
       <c r="E1035" t="n">
-        <v>21.42000007629395</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="F1035" t="n">
-        <v>21.42000007629395</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="G1035" t="n">
         <v>0</v>

--- a/static/etfs/vix_weekly.xlsx
+++ b/static/etfs/vix_weekly.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1035"/>
+  <dimension ref="A1:G1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24223,13 +24223,13 @@
         <v>23.13999938964844</v>
       </c>
       <c r="D1034" t="n">
-        <v>20.64999961853027</v>
+        <v>20.13999938964844</v>
       </c>
       <c r="E1034" t="n">
-        <v>20.86000061035156</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="F1034" t="n">
-        <v>20.86000061035156</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="G1034" t="n">
         <v>0</v>
@@ -24237,24 +24237,47 @@
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B1035" t="n">
-        <v>21.97999954223633</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="C1035" t="n">
-        <v>22.01000022888184</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="D1035" t="n">
-        <v>20.70999908447266</v>
+        <v>19.44000053405762</v>
       </c>
       <c r="E1035" t="n">
-        <v>20.86000061035156</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="F1035" t="n">
-        <v>20.86000061035156</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="G1035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>19.61000061035156</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>20.88999938964844</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>19.44000053405762</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>20.63999938964844</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>20.63999938964844</v>
+      </c>
+      <c r="G1036" t="n">
         <v>0</v>
       </c>
     </row>

--- a/static/etfs/vix_weekly.xlsx
+++ b/static/etfs/vix_weekly.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1036"/>
+  <dimension ref="A1:G1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24243,16 +24243,16 @@
         <v>20.86000061035156</v>
       </c>
       <c r="C1035" t="n">
-        <v>20.88999938964844</v>
+        <v>21.01000022888184</v>
       </c>
       <c r="D1035" t="n">
-        <v>19.44000053405762</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="E1035" t="n">
-        <v>20.63999938964844</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="F1035" t="n">
-        <v>20.63999938964844</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="G1035" t="n">
         <v>0</v>
@@ -24260,24 +24260,47 @@
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>45580</v>
+        <v>45586</v>
       </c>
       <c r="B1036" t="n">
-        <v>19.61000061035156</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="C1036" t="n">
-        <v>20.88999938964844</v>
+        <v>20.46999931335449</v>
       </c>
       <c r="D1036" t="n">
-        <v>19.44000053405762</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E1036" t="n">
-        <v>20.63999938964844</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="F1036" t="n">
-        <v>20.63999938964844</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="G1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>19.23999977111816</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>19.23999977111816</v>
+      </c>
+      <c r="G1037" t="n">
         <v>0</v>
       </c>
     </row>
